--- a/BDP/Classes/class_03/Hondt.xlsx
+++ b/BDP/Classes/class_03/Hondt.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uporto-my.sharepoint.com/personal/up202500848_up_pt/Documents/madsad2025_public/BDP/Classes/class_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{F4CBA8DF-8CDB-457D-99D8-DDFBF14D8E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F540845-E197-4AF1-99E5-B6D4945C6141}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{F4CBA8DF-8CDB-457D-99D8-DDFBF14D8E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC69B585-304C-4595-942D-865A46E9DA17}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4AC65F72-5933-44DA-89EE-2CD2C801665A}"/>
+    <workbookView xWindow="-28920" yWindow="-6900" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4AC65F72-5933-44DA-89EE-2CD2C801665A}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>Partido</t>
   </si>
@@ -163,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +180,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84984F4-43AD-4B59-94ED-7BE1AA958655}">
   <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -3603,4 +3605,243 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521122B5-EFF0-4E13-AACB-DB17CF80022B}">
+  <dimension ref="A2:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="9">
+        <f>$B3/C$2</f>
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <f>$B3/D$2</f>
+        <v>500</v>
+      </c>
+      <c r="E3">
+        <f>$B3/E$2</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="F3">
+        <f>$B3/F$2</f>
+        <v>250</v>
+      </c>
+      <c r="G3">
+        <f>$B3/G$2</f>
+        <v>200</v>
+      </c>
+      <c r="H3">
+        <f>$B3/H$2</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="I3">
+        <f>$B3/I$2</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="J3">
+        <f>$B3/J$2</f>
+        <v>125</v>
+      </c>
+      <c r="K3">
+        <f>$B3/K$2</f>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="L3">
+        <f>$B3/L$2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" ref="C4:L6" si="0">$B4/C$2</f>
+        <v>2000</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>222.22222222222223</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>428.57142857142856</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4000</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>571.42857142857144</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>444.44444444444446</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>